--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3957.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23497015615969</v>
+        <v>0.5552411675453186</v>
       </c>
       <c r="B1">
-        <v>2.329568857811153</v>
+        <v>1.849376797676086</v>
       </c>
       <c r="C1">
-        <v>6.635792719175344</v>
+        <v>3.552275657653809</v>
       </c>
       <c r="D1">
-        <v>3.271596171169415</v>
+        <v>1.52636456489563</v>
       </c>
       <c r="E1">
-        <v>1.377672389690392</v>
+        <v>0.7340560555458069</v>
       </c>
     </row>
   </sheetData>
